--- a/Excel/Exemple1.xlsx
+++ b/Excel/Exemple1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martin.carufel\PycharmProjects\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcarufel\Documents\github\PycharmProjects\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47DDEE7-6319-4BF6-B787-8D67DBBF1758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
+    <workbookView xWindow="1740" yWindow="1830" windowWidth="23010" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patate" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,19 +370,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -391,8 +392,23 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="H1">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -406,7 +422,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -420,7 +436,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -434,7 +450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -448,7 +464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -462,7 +478,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -476,7 +492,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -497,10 +513,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
